--- a/classfiers/nano/elm/smote/nano_elm_tanh_smote_results.xlsx
+++ b/classfiers/nano/elm/smote/nano_elm_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9635036496350365</v>
+        <v>0.9830508474576272</v>
       </c>
       <c r="C2" t="n">
-        <v>0.631578947368421</v>
+        <v>0.3068783068783069</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7630057803468209</v>
+        <v>0.4677419354838709</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9458470222477013</v>
+        <v>0.7797718752492622</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3443396226415094</v>
+        <v>0.4010695187165775</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5122807017543859</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8397989772526891</v>
+        <v>0.9507754010695186</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3514851485148515</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5201465201465202</v>
+        <v>0.65</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7085617043847243</v>
+        <v>0.9776468387579499</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5365853658536585</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7465939153439153</v>
+        <v>0.9901575854700855</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3836206896551724</v>
+        <v>0.2932692307692308</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5545171339563864</v>
+        <v>0.4535315985130112</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8508265197298258</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9927007299270073</v>
+        <v>0.9889178617992178</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4155382149693242</v>
+        <v>0.3857704767998885</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5773071004115543</v>
+        <v>0.5508665092883367</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8183256277917712</v>
+        <v>0.8771703401093631</v>
       </c>
     </row>
   </sheetData>
